--- a/受控文件/需求优先级/用户代表打分/SRA2021-G04-需求优先级教师用户代表打分.xlsx
+++ b/受控文件/需求优先级/用户代表打分/SRA2021-G04-需求优先级教师用户代表打分.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14768\Documents\大三下学期\软件需求\小组作业\需求优先级\用户代表打分\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14768\Documents\大三下学期\软件需求\小组作业\仓库\受控文件\需求优先级\用户代表打分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB7FDF4-1F9E-40F4-9563-5D3E0A34A732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C97FBD-78C0-4954-96F1-0C257048BBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -656,7 +656,7 @@
   <dimension ref="A1:U68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -741,12 +741,6 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -756,12 +750,6 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
-      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -772,12 +760,6 @@
       </c>
       <c r="C6" t="s">
         <v>18</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
@@ -788,12 +770,6 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
@@ -803,12 +779,6 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
@@ -819,12 +789,6 @@
       </c>
       <c r="C9" t="s">
         <v>21</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.4">
@@ -835,12 +799,6 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>7</v>
-      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
@@ -850,12 +808,6 @@
       <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>7</v>
-      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
@@ -865,12 +817,6 @@
       <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="D12">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>7</v>
-      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
@@ -880,12 +826,6 @@
       <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="D13">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
-      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
@@ -895,12 +835,6 @@
       <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>7</v>
-      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
@@ -910,12 +844,6 @@
       <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>7</v>
-      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
@@ -925,14 +853,8 @@
       <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="D16">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -940,14 +862,8 @@
       <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -957,14 +873,8 @@
       <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -972,14 +882,8 @@
       <c r="C19" t="s">
         <v>31</v>
       </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -987,14 +891,8 @@
       <c r="C20" t="s">
         <v>32</v>
       </c>
-      <c r="D20">
-        <v>8</v>
-      </c>
-      <c r="E20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1004,14 +902,8 @@
       <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1019,14 +911,8 @@
       <c r="C22" t="s">
         <v>34</v>
       </c>
-      <c r="D22">
-        <v>7</v>
-      </c>
-      <c r="E22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1034,14 +920,8 @@
       <c r="C23" t="s">
         <v>35</v>
       </c>
-      <c r="D23">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1049,14 +929,8 @@
       <c r="C24" t="s">
         <v>36</v>
       </c>
-      <c r="D24">
-        <v>7</v>
-      </c>
-      <c r="E24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1064,14 +938,8 @@
       <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="D25">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1079,14 +947,8 @@
       <c r="C26" t="s">
         <v>38</v>
       </c>
-      <c r="D26">
-        <v>7</v>
-      </c>
-      <c r="E26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1094,14 +956,8 @@
       <c r="C27" t="s">
         <v>39</v>
       </c>
-      <c r="D27">
-        <v>7</v>
-      </c>
-      <c r="E27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1109,14 +965,8 @@
       <c r="C28" t="s">
         <v>40</v>
       </c>
-      <c r="D28">
-        <v>7</v>
-      </c>
-      <c r="E28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1124,14 +974,8 @@
       <c r="C29" t="s">
         <v>41</v>
       </c>
-      <c r="D29">
-        <v>7</v>
-      </c>
-      <c r="E29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1141,14 +985,8 @@
       <c r="C30" t="s">
         <v>42</v>
       </c>
-      <c r="D30">
-        <v>8</v>
-      </c>
-      <c r="E30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1156,14 +994,8 @@
       <c r="C31" t="s">
         <v>43</v>
       </c>
-      <c r="D31">
-        <v>8</v>
-      </c>
-      <c r="E31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1171,14 +1003,8 @@
       <c r="C32" t="s">
         <v>44</v>
       </c>
-      <c r="D32">
-        <v>8</v>
-      </c>
-      <c r="E32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1186,14 +1012,8 @@
       <c r="C33" t="s">
         <v>45</v>
       </c>
-      <c r="D33">
-        <v>8</v>
-      </c>
-      <c r="E33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1203,14 +1023,8 @@
       <c r="C34" t="s">
         <v>46</v>
       </c>
-      <c r="D34">
-        <v>7</v>
-      </c>
-      <c r="E34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1218,14 +1032,8 @@
       <c r="C35" t="s">
         <v>47</v>
       </c>
-      <c r="D35">
-        <v>7</v>
-      </c>
-      <c r="E35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1233,14 +1041,8 @@
       <c r="C36" t="s">
         <v>48</v>
       </c>
-      <c r="D36">
-        <v>7</v>
-      </c>
-      <c r="E36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1248,14 +1050,8 @@
       <c r="C37" t="s">
         <v>49</v>
       </c>
-      <c r="D37">
-        <v>7</v>
-      </c>
-      <c r="E37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1263,14 +1059,8 @@
       <c r="C38" t="s">
         <v>50</v>
       </c>
-      <c r="D38">
-        <v>7</v>
-      </c>
-      <c r="E38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1278,14 +1068,8 @@
       <c r="C39" t="s">
         <v>51</v>
       </c>
-      <c r="D39">
-        <v>7</v>
-      </c>
-      <c r="E39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1293,14 +1077,8 @@
       <c r="C40" t="s">
         <v>52</v>
       </c>
-      <c r="D40">
-        <v>7</v>
-      </c>
-      <c r="E40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1308,14 +1086,8 @@
       <c r="C41" t="s">
         <v>53</v>
       </c>
-      <c r="D41">
-        <v>7</v>
-      </c>
-      <c r="E41">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1323,14 +1095,8 @@
       <c r="C42" t="s">
         <v>54</v>
       </c>
-      <c r="D42">
-        <v>7</v>
-      </c>
-      <c r="E42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1340,14 +1106,8 @@
       <c r="C43" t="s">
         <v>55</v>
       </c>
-      <c r="D43">
-        <v>6</v>
-      </c>
-      <c r="E43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1355,14 +1115,8 @@
       <c r="C44" t="s">
         <v>56</v>
       </c>
-      <c r="D44">
-        <v>6</v>
-      </c>
-      <c r="E44">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1370,14 +1124,8 @@
       <c r="C45" t="s">
         <v>57</v>
       </c>
-      <c r="D45">
-        <v>6</v>
-      </c>
-      <c r="E45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1385,14 +1133,8 @@
       <c r="C46" t="s">
         <v>58</v>
       </c>
-      <c r="D46">
-        <v>6</v>
-      </c>
-      <c r="E46">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1402,14 +1144,8 @@
       <c r="C47" t="s">
         <v>59</v>
       </c>
-      <c r="D47">
-        <v>7</v>
-      </c>
-      <c r="E47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1417,14 +1153,8 @@
       <c r="C48" t="s">
         <v>60</v>
       </c>
-      <c r="D48">
-        <v>7</v>
-      </c>
-      <c r="E48">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1432,14 +1162,8 @@
       <c r="C49" t="s">
         <v>61</v>
       </c>
-      <c r="D49">
-        <v>7</v>
-      </c>
-      <c r="E49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1447,14 +1171,8 @@
       <c r="C50" t="s">
         <v>62</v>
       </c>
-      <c r="D50">
-        <v>7</v>
-      </c>
-      <c r="E50">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1462,14 +1180,8 @@
       <c r="C51" t="s">
         <v>63</v>
       </c>
-      <c r="D51">
-        <v>7</v>
-      </c>
-      <c r="E51">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1477,14 +1189,8 @@
       <c r="C52" t="s">
         <v>64</v>
       </c>
-      <c r="D52">
-        <v>7</v>
-      </c>
-      <c r="E52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1492,14 +1198,8 @@
       <c r="C53" t="s">
         <v>65</v>
       </c>
-      <c r="D53">
-        <v>7</v>
-      </c>
-      <c r="E53">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1507,14 +1207,8 @@
       <c r="C54" t="s">
         <v>66</v>
       </c>
-      <c r="D54">
-        <v>7</v>
-      </c>
-      <c r="E54">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1522,14 +1216,8 @@
       <c r="C55" t="s">
         <v>67</v>
       </c>
-      <c r="D55">
-        <v>7</v>
-      </c>
-      <c r="E55">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -1537,14 +1225,8 @@
       <c r="C56" t="s">
         <v>68</v>
       </c>
-      <c r="D56">
-        <v>7</v>
-      </c>
-      <c r="E56">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1552,14 +1234,8 @@
       <c r="C57" t="s">
         <v>69</v>
       </c>
-      <c r="D57">
-        <v>7</v>
-      </c>
-      <c r="E57">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1567,14 +1243,8 @@
       <c r="C58" t="s">
         <v>70</v>
       </c>
-      <c r="D58">
-        <v>7</v>
-      </c>
-      <c r="E58">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -1582,14 +1252,8 @@
       <c r="C59" t="s">
         <v>71</v>
       </c>
-      <c r="D59">
-        <v>7</v>
-      </c>
-      <c r="E59">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -1597,14 +1261,8 @@
       <c r="C60" t="s">
         <v>72</v>
       </c>
-      <c r="D60">
-        <v>7</v>
-      </c>
-      <c r="E60">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -1612,14 +1270,8 @@
       <c r="C61" t="s">
         <v>73</v>
       </c>
-      <c r="D61">
-        <v>7</v>
-      </c>
-      <c r="E61">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -1629,14 +1281,8 @@
       <c r="C62" t="s">
         <v>74</v>
       </c>
-      <c r="D62">
-        <v>7</v>
-      </c>
-      <c r="E62">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -1644,14 +1290,8 @@
       <c r="C63" t="s">
         <v>75</v>
       </c>
-      <c r="D63">
-        <v>7</v>
-      </c>
-      <c r="E63">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -1659,14 +1299,8 @@
       <c r="C64" t="s">
         <v>76</v>
       </c>
-      <c r="D64">
-        <v>7</v>
-      </c>
-      <c r="E64">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -1674,14 +1308,8 @@
       <c r="C65" t="s">
         <v>77</v>
       </c>
-      <c r="D65">
-        <v>7</v>
-      </c>
-      <c r="E65">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -1689,14 +1317,8 @@
       <c r="C66" t="s">
         <v>78</v>
       </c>
-      <c r="D66">
-        <v>7</v>
-      </c>
-      <c r="E66">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -1704,26 +1326,14 @@
       <c r="C67" t="s">
         <v>79</v>
       </c>
-      <c r="D67">
-        <v>7</v>
-      </c>
-      <c r="E67">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>4</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s">
         <v>80</v>
-      </c>
-      <c r="D68">
-        <v>7</v>
-      </c>
-      <c r="E68">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/受控文件/需求优先级/用户代表打分/SRA2021-G04-需求优先级教师用户代表打分.xlsx
+++ b/受控文件/需求优先级/用户代表打分/SRA2021-G04-需求优先级教师用户代表打分.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14768\Documents\大三下学期\软件需求\小组作业\仓库\受控文件\需求优先级\用户代表打分\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14768\Documents\大三下学期\软件需求\小组作业\需求优先级\用户代表打分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C97FBD-78C0-4954-96F1-0C257048BBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32DC40F-80DF-4A83-8364-2948979DF40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="1073" windowWidth="22215" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="84">
   <si>
     <t>用户类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,170 +127,190 @@
     <t>删除自己的博客</t>
   </si>
   <si>
+    <t>删除自己的博客评论</t>
+  </si>
+  <si>
+    <t>查看论坛首页</t>
+  </si>
+  <si>
+    <t>查看论坛详情信息</t>
+  </si>
+  <si>
+    <t>发表帖子</t>
+  </si>
+  <si>
+    <t>点赞帖子</t>
+  </si>
+  <si>
+    <t>收藏帖子</t>
+  </si>
+  <si>
+    <t>举报帖子</t>
+  </si>
+  <si>
+    <t>评论帖子</t>
+  </si>
+  <si>
+    <t>回复已有帖子评论</t>
+  </si>
+  <si>
+    <t>举报帖子评论</t>
+  </si>
+  <si>
+    <t>删除自己的帖子</t>
+  </si>
+  <si>
+    <t>删除自己的帖子的评论</t>
+  </si>
+  <si>
+    <t>删除自己的评论</t>
+  </si>
+  <si>
+    <t>查看问答首页</t>
+  </si>
+  <si>
+    <t>查看问题详情信息</t>
+  </si>
+  <si>
+    <t>发表回答</t>
+  </si>
+  <si>
+    <t>发表问题</t>
+  </si>
+  <si>
+    <t>点赞回答</t>
+  </si>
+  <si>
+    <t>收藏问题</t>
+  </si>
+  <si>
+    <t>评论回答</t>
+  </si>
+  <si>
+    <t>举报回答评论</t>
+  </si>
+  <si>
+    <t>删除自己的回答</t>
+  </si>
+  <si>
+    <t>删除自己的回答的评论</t>
+  </si>
+  <si>
+    <t>删除自己的回答评论</t>
+  </si>
+  <si>
+    <t>搜索博客</t>
+  </si>
+  <si>
+    <t>搜索帖子</t>
+  </si>
+  <si>
+    <t>搜索问答</t>
+  </si>
+  <si>
+    <t>搜索用户</t>
+  </si>
+  <si>
+    <t>查看个人创作</t>
+  </si>
+  <si>
+    <t>查看关注用户列表</t>
+  </si>
+  <si>
+    <t>查看关注的问题</t>
+  </si>
+  <si>
+    <t>查看粉丝用户列表</t>
+  </si>
+  <si>
+    <t>查看邀请回答问题</t>
+  </si>
+  <si>
+    <t>查看回复我的</t>
+  </si>
+  <si>
+    <t>查看@我的</t>
+  </si>
+  <si>
+    <t>查看收到的赞</t>
+  </si>
+  <si>
+    <t>查看系统通知</t>
+  </si>
+  <si>
+    <t>查看隐私协议</t>
+  </si>
+  <si>
+    <t>查看自己的个人主页页面</t>
+  </si>
+  <si>
+    <t>修改个人资料</t>
+  </si>
+  <si>
+    <t>查看其他用户个人主页</t>
+  </si>
+  <si>
+    <t>关注其他用户</t>
+  </si>
+  <si>
+    <t>取消关注其他用户</t>
+  </si>
+  <si>
+    <t>退出登陆</t>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>删除自己博客下的评论</t>
-  </si>
-  <si>
-    <t>删除自己的博客评论</t>
-  </si>
-  <si>
-    <t>查看论坛首页</t>
-  </si>
-  <si>
-    <t>查看论坛详情信息</t>
-  </si>
-  <si>
-    <t>发表帖子</t>
-  </si>
-  <si>
-    <t>点赞帖子</t>
-  </si>
-  <si>
-    <t>收藏帖子</t>
-  </si>
-  <si>
-    <t>举报帖子</t>
-  </si>
-  <si>
-    <t>评论帖子</t>
-  </si>
-  <si>
-    <t>回复已有帖子评论</t>
-  </si>
-  <si>
-    <t>举报帖子评论</t>
-  </si>
-  <si>
-    <t>删除自己的帖子</t>
-  </si>
-  <si>
-    <t>删除自己的帖子的评论</t>
-  </si>
-  <si>
-    <t>删除自己的评论</t>
-  </si>
-  <si>
-    <t>查看问答首页</t>
-  </si>
-  <si>
-    <t>查看问题详情信息</t>
-  </si>
-  <si>
-    <t>发表回答</t>
-  </si>
-  <si>
-    <t>发表问题</t>
-  </si>
-  <si>
-    <t>点赞回答</t>
-  </si>
-  <si>
-    <t>收藏问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请回答问题</t>
   </si>
   <si>
     <t>举报回答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看我的收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看浏览记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系客服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看用户协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>举报问题</t>
-  </si>
-  <si>
-    <t>评论回答</t>
-  </si>
-  <si>
-    <t>举报回答评论</t>
-  </si>
-  <si>
-    <t>删除自己的回答</t>
-  </si>
-  <si>
-    <t>删除自己的回答的评论</t>
-  </si>
-  <si>
-    <t>删除自己的回答评论</t>
-  </si>
-  <si>
-    <t>搜索博客</t>
-  </si>
-  <si>
-    <t>搜索帖子</t>
-  </si>
-  <si>
-    <t>搜索问答</t>
-  </si>
-  <si>
-    <t>搜索用户</t>
-  </si>
-  <si>
-    <t>查看个人创作</t>
-  </si>
-  <si>
-    <t>查看关注用户列表</t>
-  </si>
-  <si>
-    <t>查看关注的问题</t>
-  </si>
-  <si>
-    <t>查看粉丝用户列表</t>
-  </si>
-  <si>
-    <t>查看邀请回答问题</t>
-  </si>
-  <si>
-    <t>查看回复我的</t>
-  </si>
-  <si>
-    <t>查看@我的</t>
-  </si>
-  <si>
-    <t>查看收到的赞</t>
-  </si>
-  <si>
-    <t>查看系统通知</t>
-  </si>
-  <si>
-    <t>查看聊天列表</t>
-  </si>
-  <si>
-    <t>添加聊天对话</t>
-  </si>
-  <si>
-    <t>查看我的收藏</t>
-  </si>
-  <si>
-    <t>查看浏览记录</t>
-  </si>
-  <si>
-    <t>查看用户协议</t>
-  </si>
-  <si>
-    <t>查看隐私协议</t>
-  </si>
-  <si>
-    <t>查看自己的个人主页页面</t>
-  </si>
-  <si>
-    <t>修改个人资料</t>
-  </si>
-  <si>
-    <t>查看其他用户个人主页</t>
-  </si>
-  <si>
-    <t>关注其他用户</t>
-  </si>
-  <si>
-    <t>取消关注其他用户</t>
-  </si>
-  <si>
-    <t>退出登陆</t>
-  </si>
-  <si>
-    <t>注销账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请添加新标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,8 +342,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,8 +363,13 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -359,23 +392,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="输出" xfId="1" builtinId="21"/>
+    <cellStyle name="着色 2" xfId="2" builtinId="33"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -653,16 +737,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U68"/>
+  <dimension ref="A1:U74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="B45" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.796875" customWidth="1"/>
   </cols>
@@ -741,6 +825,12 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -750,6 +840,12 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -760,6 +856,12 @@
       </c>
       <c r="C6" t="s">
         <v>18</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
@@ -770,6 +872,12 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
@@ -779,6 +887,12 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
@@ -789,6 +903,12 @@
       </c>
       <c r="C9" t="s">
         <v>21</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.4">
@@ -799,6 +919,12 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
@@ -808,6 +934,12 @@
       <c r="C11" t="s">
         <v>23</v>
       </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
@@ -817,6 +949,12 @@
       <c r="C12" t="s">
         <v>24</v>
       </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
@@ -826,6 +964,12 @@
       <c r="C13" t="s">
         <v>25</v>
       </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
@@ -835,6 +979,12 @@
       <c r="C14" t="s">
         <v>26</v>
       </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
@@ -844,6 +994,12 @@
       <c r="C15" t="s">
         <v>27</v>
       </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
@@ -851,19 +1007,31 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -871,28 +1039,46 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -900,82 +1086,136 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -983,37 +1223,61 @@
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1021,82 +1285,130 @@
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B39" s="2"/>
       <c r="C39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B40" s="2"/>
       <c r="C40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1104,37 +1416,61 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>4</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1142,205 +1478,387 @@
         <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>4</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>4</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>4</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>4</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>4</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>4</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>4</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>4</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>4</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>4</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>4</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>4</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>4</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B60" s="2"/>
-      <c r="C60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C60" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>4</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="2"/>
+      <c r="C62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B63" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="2"/>
       <c r="C63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="2"/>
+      <c r="B64" s="4"/>
       <c r="C64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>4</v>
       </c>
-      <c r="B65" s="2"/>
+      <c r="B65" s="4"/>
       <c r="C65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="2"/>
+      <c r="B66" s="4"/>
       <c r="C66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="2"/>
+      <c r="B67" s="4"/>
       <c r="C67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+      <c r="D67">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="2"/>
+      <c r="B68" s="4"/>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>68</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="B63:B71"/>
     <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B61"/>
+    <mergeCell ref="B47:B62"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B17"/>
@@ -1351,7 +1869,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C53" r:id="rId1" display="教师查看@我的" xr:uid="{1DBE58FE-D212-4C26-9452-E26DB9EC7BE3}"/>
+    <hyperlink ref="C54" r:id="rId1" display="教师查看@我的" xr:uid="{1DBE58FE-D212-4C26-9452-E26DB9EC7BE3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/受控文件/需求优先级/用户代表打分/SRA2021-G04-需求优先级教师用户代表打分.xlsx
+++ b/受控文件/需求优先级/用户代表打分/SRA2021-G04-需求优先级教师用户代表打分.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14768\Documents\大三下学期\软件需求\小组作业\需求优先级\用户代表打分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32DC40F-80DF-4A83-8364-2948979DF40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476C6EF8-014F-4906-8815-FD59D8CE5177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="1073" windowWidth="22215" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="2940" windowWidth="22215" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -442,9 +443,7 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -454,7 +453,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -739,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B45" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -819,7 +820,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
@@ -836,7 +837,7 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="6"/>
       <c r="C5" t="s">
         <v>17</v>
       </c>
@@ -851,7 +852,7 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
@@ -868,7 +869,7 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="6"/>
       <c r="C7" t="s">
         <v>19</v>
       </c>
@@ -883,7 +884,7 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="6"/>
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -898,7 +899,7 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
@@ -915,7 +916,7 @@
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="6"/>
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -930,7 +931,7 @@
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="6"/>
       <c r="C11" t="s">
         <v>23</v>
       </c>
@@ -945,7 +946,7 @@
       <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="6"/>
       <c r="C12" t="s">
         <v>24</v>
       </c>
@@ -960,7 +961,7 @@
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="6"/>
       <c r="C13" t="s">
         <v>25</v>
       </c>
@@ -975,7 +976,7 @@
       <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="6"/>
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -990,7 +991,7 @@
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="6"/>
       <c r="C15" t="s">
         <v>27</v>
       </c>
@@ -1005,7 +1006,7 @@
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="6"/>
       <c r="C16" t="s">
         <v>73</v>
       </c>
@@ -1020,7 +1021,7 @@
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="6"/>
       <c r="C17" t="s">
         <v>28</v>
       </c>
@@ -1035,7 +1036,7 @@
       <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
@@ -1052,7 +1053,7 @@
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="6"/>
       <c r="C19" t="s">
         <v>30</v>
       </c>
@@ -1067,7 +1068,7 @@
       <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="6"/>
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -1082,7 +1083,7 @@
       <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
@@ -1099,7 +1100,7 @@
       <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="6"/>
       <c r="C22" t="s">
         <v>33</v>
       </c>
@@ -1114,7 +1115,7 @@
       <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="6"/>
       <c r="C23" t="s">
         <v>34</v>
       </c>
@@ -1129,7 +1130,7 @@
       <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="6"/>
       <c r="C24" t="s">
         <v>35</v>
       </c>
@@ -1144,7 +1145,7 @@
       <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="6"/>
       <c r="C25" t="s">
         <v>36</v>
       </c>
@@ -1159,7 +1160,7 @@
       <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="6"/>
       <c r="C26" t="s">
         <v>37</v>
       </c>
@@ -1174,7 +1175,7 @@
       <c r="A27" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="6"/>
       <c r="C27" t="s">
         <v>38</v>
       </c>
@@ -1189,7 +1190,7 @@
       <c r="A28" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="6"/>
       <c r="C28" t="s">
         <v>39</v>
       </c>
@@ -1204,7 +1205,7 @@
       <c r="A29" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="6"/>
       <c r="C29" t="s">
         <v>40</v>
       </c>
@@ -1219,7 +1220,7 @@
       <c r="A30" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C30" t="s">
@@ -1236,7 +1237,7 @@
       <c r="A31" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="6"/>
       <c r="C31" t="s">
         <v>42</v>
       </c>
@@ -1251,7 +1252,7 @@
       <c r="A32" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="6"/>
       <c r="C32" t="s">
         <v>43</v>
       </c>
@@ -1266,7 +1267,7 @@
       <c r="A33" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="6"/>
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -1281,7 +1282,7 @@
       <c r="A34" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C34" t="s">
@@ -1298,7 +1299,7 @@
       <c r="A35" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="6"/>
       <c r="C35" t="s">
         <v>46</v>
       </c>
@@ -1313,7 +1314,7 @@
       <c r="A36" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="6"/>
       <c r="C36" t="s">
         <v>82</v>
       </c>
@@ -1328,7 +1329,7 @@
       <c r="A37" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="6"/>
       <c r="C37" t="s">
         <v>74</v>
       </c>
@@ -1343,7 +1344,7 @@
       <c r="A38" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="6"/>
       <c r="C38" t="s">
         <v>75</v>
       </c>
@@ -1355,7 +1356,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="2"/>
+      <c r="B39" s="6"/>
       <c r="C39" t="s">
         <v>47</v>
       </c>
@@ -1367,7 +1368,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="2"/>
+      <c r="B40" s="6"/>
       <c r="C40" t="s">
         <v>48</v>
       </c>
@@ -1382,7 +1383,7 @@
       <c r="A41" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="6"/>
       <c r="C41" t="s">
         <v>49</v>
       </c>
@@ -1397,7 +1398,7 @@
       <c r="A42" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="6"/>
       <c r="C42" t="s">
         <v>50</v>
       </c>
@@ -1412,7 +1413,7 @@
       <c r="A43" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C43" t="s">
@@ -1429,7 +1430,7 @@
       <c r="A44" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="6"/>
       <c r="C44" t="s">
         <v>52</v>
       </c>
@@ -1444,7 +1445,7 @@
       <c r="A45" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="6"/>
       <c r="C45" t="s">
         <v>53</v>
       </c>
@@ -1459,7 +1460,7 @@
       <c r="A46" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="6"/>
       <c r="C46" t="s">
         <v>54</v>
       </c>
@@ -1474,7 +1475,7 @@
       <c r="A47" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C47" t="s">
@@ -1491,7 +1492,7 @@
       <c r="A48" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="6"/>
       <c r="C48" t="s">
         <v>56</v>
       </c>
@@ -1506,7 +1507,7 @@
       <c r="A49" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="6"/>
       <c r="C49" t="s">
         <v>57</v>
       </c>
@@ -1521,7 +1522,7 @@
       <c r="A50" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="6"/>
       <c r="C50" t="s">
         <v>58</v>
       </c>
@@ -1536,7 +1537,7 @@
       <c r="A51" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="2"/>
+      <c r="B51" s="6"/>
       <c r="C51" t="s">
         <v>59</v>
       </c>
@@ -1551,7 +1552,7 @@
       <c r="A52" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="2"/>
+      <c r="B52" s="6"/>
       <c r="C52" t="s">
         <v>60</v>
       </c>
@@ -1566,7 +1567,7 @@
       <c r="A53" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="6"/>
       <c r="C53" t="s">
         <v>61</v>
       </c>
@@ -1581,7 +1582,7 @@
       <c r="A54" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="6"/>
       <c r="C54" t="s">
         <v>62</v>
       </c>
@@ -1596,7 +1597,7 @@
       <c r="A55" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="B55" s="6"/>
       <c r="C55" t="s">
         <v>63</v>
       </c>
@@ -1611,7 +1612,7 @@
       <c r="A56" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="2"/>
+      <c r="B56" s="6"/>
       <c r="C56" t="s">
         <v>64</v>
       </c>
@@ -1626,7 +1627,7 @@
       <c r="A57" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="2"/>
+      <c r="B57" s="6"/>
       <c r="C57" t="s">
         <v>76</v>
       </c>
@@ -1641,7 +1642,7 @@
       <c r="A58" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="2"/>
+      <c r="B58" s="6"/>
       <c r="C58" t="s">
         <v>77</v>
       </c>
@@ -1656,7 +1657,7 @@
       <c r="A59" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="B59" s="6"/>
       <c r="C59" t="s">
         <v>78</v>
       </c>
@@ -1668,18 +1669,22 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B60" s="2"/>
-      <c r="C60" s="6" t="s">
+      <c r="B60" s="6"/>
+      <c r="C60" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
+      <c r="D60" s="2">
+        <v>6</v>
+      </c>
+      <c r="E60" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="2"/>
+      <c r="B61" s="6"/>
       <c r="C61" t="s">
         <v>79</v>
       </c>
@@ -1694,7 +1699,7 @@
       <c r="A62" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="B62" s="6"/>
       <c r="C62" t="s">
         <v>80</v>
       </c>
